--- a/report_template/psi_monthly.xlsx
+++ b/report_template/psi_monthly.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
-  <si>
-    <t>測站名稱：麥寮環境監測中心</t>
-  </si>
   <si>
     <t>PSI指標值</t>
   </si>
@@ -75,11 +72,15 @@
     <t>空氣品質PSI月報表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>測站名稱：台積電監測車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -263,7 +264,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -304,7 +305,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -439,6 +439,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-699E-4C24-B3E6-FA3B089BB23D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -569,6 +574,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-699E-4C24-B3E6-FA3B089BB23D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -699,6 +709,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-699E-4C24-B3E6-FA3B089BB23D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -829,6 +844,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-699E-4C24-B3E6-FA3B089BB23D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -959,6 +979,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-699E-4C24-B3E6-FA3B089BB23D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1089,6 +1114,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-699E-4C24-B3E6-FA3B089BB23D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1126,7 +1156,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1164,7 +1193,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="1"/>
@@ -1178,7 +1206,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1304,6 +1331,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1339,6 +1383,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1518,7 +1579,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J3"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1528,7 +1589,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1544,7 +1605,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1574,10 +1635,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1594,34 +1655,34 @@
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2122,7 +2183,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -2131,36 +2192,36 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="E39" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/report_template/psi_monthly.xlsx
+++ b/report_template/psi_monthly.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\EPA\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>PSI指標值</t>
   </si>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>空氣品質PSI月報表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測站名稱：台積電監測車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1237,7 +1233,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1604,9 +1606,7 @@
       <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
